--- a/documentation/methodology/newMPCS_calculations.xlsx
+++ b/documentation/methodology/newMPCS_calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/Fiscal-Impact-Measure/documentation/methodology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E9D52B8-1428-AA41-8F54-FCC7BF801C14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97F3BB9-BB6F-F84A-BB98-52337E62B73D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="500" windowWidth="33600" windowHeight="19520" xr2:uid="{825C73E2-064A-41F9-A032-19D778B689EB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="19520" xr2:uid="{825C73E2-064A-41F9-A032-19D778B689EB}"/>
   </bookViews>
   <sheets>
     <sheet name="All Output (Final)" sheetId="1" r:id="rId1"/>
@@ -339,7 +339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -390,6 +390,7 @@
     <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -707,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3622AD19-E9A0-4F5D-B44D-5CDCA5807A3E}">
   <dimension ref="A1:XFA59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="125" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="215" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2704,6 +2705,36 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
     </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B23" s="48">
+        <f>0.6*B26+ 0.4*B27</f>
+        <v>0.87999999999999989</v>
+      </c>
+      <c r="C23" s="48">
+        <f t="shared" ref="C23:H23" si="0">0.6*C26+ 0.4*C27</f>
+        <v>0.24</v>
+      </c>
+      <c r="D23" s="48">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="E23" s="48">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="F23" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>22</v>
@@ -2856,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="33">
-        <f t="shared" ref="O27:O35" si="0">SUM(B27:N27)</f>
+        <f t="shared" ref="O27:O35" si="1">SUM(B27:N27)</f>
         <v>2.4999999999999996</v>
       </c>
     </row>
@@ -2904,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.89978999999999998</v>
       </c>
     </row>
@@ -2952,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
     </row>
@@ -3000,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.65000000000000013</v>
       </c>
     </row>
@@ -3048,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.65000000000000013</v>
       </c>
     </row>
@@ -3096,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.70219999999999971</v>
       </c>
     </row>
@@ -3144,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.70219999999999971</v>
       </c>
     </row>
@@ -3192,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25000000000000011</v>
       </c>
     </row>
@@ -3240,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25000000000000011</v>
       </c>
     </row>
@@ -3590,31 +3621,31 @@
         <v>0.15555555555555556</v>
       </c>
       <c r="C49" s="43">
-        <f t="shared" ref="C49:I49" si="1">C48/0.9</f>
+        <f t="shared" ref="C49:I49" si="2">C48/0.9</f>
         <v>0.15555555555555556</v>
       </c>
       <c r="D49" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.22222222222222224</v>
       </c>
       <c r="E49" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.22222222222222224</v>
       </c>
       <c r="F49" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="G49" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.9999999999999996E-2</v>
       </c>
       <c r="H49" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.9999999999999996E-2</v>
       </c>
       <c r="I49" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4444444444444446E-2</v>
       </c>
       <c r="J49" s="43"/>
@@ -3664,35 +3695,35 @@
         <v>37</v>
       </c>
       <c r="B51" s="43">
-        <f>AVERAGE(B49,B50)</f>
+        <f t="shared" ref="B51:I51" si="3">AVERAGE(B49,B50)</f>
         <v>0.25277777777777777</v>
       </c>
       <c r="C51" s="43">
-        <f>AVERAGE(C49,C50)</f>
+        <f t="shared" si="3"/>
         <v>0.25277777777777777</v>
       </c>
       <c r="D51" s="43">
-        <f>AVERAGE(D49,D50)</f>
+        <f t="shared" si="3"/>
         <v>0.16111111111111112</v>
       </c>
       <c r="E51" s="43">
-        <f>AVERAGE(E49,E50)</f>
+        <f t="shared" si="3"/>
         <v>0.16111111111111112</v>
       </c>
       <c r="F51" s="43">
-        <f>AVERAGE(F49,F50)</f>
+        <f t="shared" si="3"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="G51" s="43">
-        <f>AVERAGE(G49,G50)</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="H51" s="43">
-        <f>AVERAGE(H49,H50)</f>
+        <f t="shared" si="3"/>
         <v>2.4999999999999998E-2</v>
       </c>
       <c r="I51" s="43">
-        <f>AVERAGE(I49,I50)</f>
+        <f t="shared" si="3"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="J51" s="43"/>
@@ -3776,43 +3807,43 @@
         <v>0.125</v>
       </c>
       <c r="C54" s="47">
-        <f t="shared" ref="C54:L54" si="2">C53/0.64</f>
+        <f t="shared" ref="C54:L54" si="4">C53/0.64</f>
         <v>0.140625</v>
       </c>
       <c r="D54" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.140625</v>
       </c>
       <c r="E54" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.8125E-2</v>
       </c>
       <c r="F54" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.8125E-2</v>
       </c>
       <c r="G54" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.8125E-2</v>
       </c>
       <c r="H54" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.8125E-2</v>
       </c>
       <c r="I54" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.8125E-2</v>
       </c>
       <c r="J54" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.8125E-2</v>
       </c>
       <c r="K54" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.8125E-2</v>
       </c>
       <c r="L54" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.6875E-2</v>
       </c>
       <c r="M54" s="41"/>
@@ -3869,43 +3900,43 @@
         <v>0.23749999999999999</v>
       </c>
       <c r="C56" s="45">
-        <f t="shared" ref="C56:L56" si="3">AVERAGE(C54,C55)</f>
+        <f t="shared" ref="C56:L56" si="5">AVERAGE(C54,C55)</f>
         <v>0.14531250000000001</v>
       </c>
       <c r="D56" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.11031250000000001</v>
       </c>
       <c r="E56" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.9062500000000008E-2</v>
       </c>
       <c r="F56" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.9062500000000008E-2</v>
       </c>
       <c r="G56" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.9062500000000008E-2</v>
       </c>
       <c r="H56" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.4062499999999998E-2</v>
       </c>
       <c r="I56" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.4062499999999998E-2</v>
       </c>
       <c r="J56" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.90625E-2</v>
       </c>
       <c r="K56" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.90625E-2</v>
       </c>
       <c r="L56" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.34375E-2</v>
       </c>
       <c r="M56" s="41"/>
@@ -3928,6 +3959,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008515011893A210449DAA8339AE3CA5B0" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="477fc3160cd11f7e8ffc4c735a86b82a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="deabcd68-119c-429a-9d71-422d03771023" xmlns:ns4="077f7628-a02d-4539-9cae-e7e6d8970771" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9cf3452fc7d40f4f91f7dd95bdc8891" ns3:_="" ns4:_="">
     <xsd:import namespace="deabcd68-119c-429a-9d71-422d03771023"/>
@@ -4150,15 +4190,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C366ECB2-8A25-4AD5-87DF-CE53C131E629}">
   <ds:schemaRefs>
@@ -4177,6 +4208,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82F1B7E7-F0E0-4E7A-9FC8-B1C5168779FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E8CDC05-AC33-4D91-9BE0-B6651748DD80}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4193,12 +4232,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82F1B7E7-F0E0-4E7A-9FC8-B1C5168779FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/methodology/newMPCS_calculations.xlsx
+++ b/documentation/methodology/newMPCS_calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/Fiscal-Impact-Measure/documentation/methodology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97F3BB9-BB6F-F84A-BB98-52337E62B73D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29988BD8-BDA2-E241-B68D-AFEFD95A4863}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="19520" xr2:uid="{825C73E2-064A-41F9-A032-19D778B689EB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19520" xr2:uid="{825C73E2-064A-41F9-A032-19D778B689EB}"/>
   </bookViews>
   <sheets>
     <sheet name="All Output (Final)" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
   <si>
     <t>GDP Impact</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>FIM MPC UI</t>
+  </si>
+  <si>
+    <t>MPC Rebate</t>
   </si>
 </sst>
 </file>
@@ -339,7 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -391,6 +394,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -709,7 +714,7 @@
   <dimension ref="A1:XFA59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="215" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3408,7 +3413,7 @@
         <v>33</v>
       </c>
       <c r="B42" s="35">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="C42" s="35">
         <v>0.09</v>
@@ -3435,7 +3440,7 @@
         <v>0.05</v>
       </c>
       <c r="K42" s="35">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="L42" s="35">
         <v>0.03</v>
@@ -3448,7 +3453,7 @@
       </c>
       <c r="O42" s="37">
         <f>SUM(B42:N42)</f>
-        <v>0.64000000000000012</v>
+        <v>0.7200000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -3545,6 +3550,14 @@
       <c r="O44" s="37">
         <f>SUM(B44:N44)</f>
         <v>0.25000000000000011</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="50">
+        <v>0.2</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
@@ -3959,15 +3972,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008515011893A210449DAA8339AE3CA5B0" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="477fc3160cd11f7e8ffc4c735a86b82a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="deabcd68-119c-429a-9d71-422d03771023" xmlns:ns4="077f7628-a02d-4539-9cae-e7e6d8970771" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9cf3452fc7d40f4f91f7dd95bdc8891" ns3:_="" ns4:_="">
     <xsd:import namespace="deabcd68-119c-429a-9d71-422d03771023"/>
@@ -4190,6 +4194,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C366ECB2-8A25-4AD5-87DF-CE53C131E629}">
   <ds:schemaRefs>
@@ -4208,14 +4221,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82F1B7E7-F0E0-4E7A-9FC8-B1C5168779FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E8CDC05-AC33-4D91-9BE0-B6651748DD80}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4232,4 +4237,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82F1B7E7-F0E0-4E7A-9FC8-B1C5168779FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>